--- a/基本設計・詳細設計/テーブル定義書.xlsx
+++ b/基本設計・詳細設計/テーブル定義書.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -192,7 +192,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>ユーザー登録・更新操作にてハッシュ化された状態で反映</t>
+    <t>ユーザー登録・更新操作にてハッシュ化された値が反映</t>
   </si>
   <si>
     <t>性別</t>
@@ -212,6 +212,9 @@
     <t>postal_code</t>
   </si>
   <si>
+    <t>UNSIGENED ZEROFILL</t>
+  </si>
+  <si>
     <t>住所（都道府県）</t>
   </si>
   <si>
@@ -264,13 +267,16 @@
     <t>ユーザー登録操作にて反映</t>
   </si>
   <si>
+    <t>「yyyy/MM/dd hh:mm:ss」の形式で反映</t>
+  </si>
+  <si>
     <t>更新日時</t>
   </si>
   <si>
     <t>update_time</t>
   </si>
   <si>
-    <t>ユーザー更新操作にて反映</t>
+    <t>ユーザー更新・削除操作にて反映</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -556,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1774,7 +1777,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'表紙'!R2C1" tooltip="" display="表紙"/>
-    <hyperlink ref="D12" location="'ユーザーマスタ'!R2C1" tooltip="" display="ユーザーマスタ"/>
+    <hyperlink ref="D12" location="'ユーザーマスタ'!R1C1" tooltip="" display="ユーザーマスタ"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -2041,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2055,696 +2058,717 @@
     <col min="9" max="9" width="28.8516" style="19" customWidth="1"/>
     <col min="10" max="10" width="35.0156" style="19" customWidth="1"/>
     <col min="11" max="11" width="25.2422" style="19" customWidth="1"/>
-    <col min="12" max="12" width="19.6016" style="19" customWidth="1"/>
+    <col min="12" max="12" width="43.4609" style="19" customWidth="1"/>
     <col min="13" max="16384" width="19.6016" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.95" customHeight="1">
+    <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="F1" s="23">
+        <v>44872</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="22">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" ht="18.8" customHeight="1">
+      <c r="A3" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" ht="18.65" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" ht="18.65" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" ht="37.45" customHeight="1">
+      <c r="A9" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="33">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="33">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="33">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s" s="33">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s" s="33">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s" s="33">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s" s="33">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s" s="33">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s" s="33">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="19.15" customHeight="1">
+      <c r="A10" s="34">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="35">
+        <v>40</v>
+      </c>
+      <c r="E10" s="36">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" t="s" s="35">
+        <v>43</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" t="s" s="35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="38">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s" s="39">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s" s="39">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E11" s="40">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s" s="39">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s" s="39">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E12" s="40">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="38">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="39">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s" s="39">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E13" s="40">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="38">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-    </row>
-    <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s" s="23">
-        <v>21</v>
-      </c>
-      <c r="F2" s="24">
-        <v>44872</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="23">
+      <c r="B14" t="s" s="39">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E14" s="40">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s" s="39">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E15" s="40">
+        <v>255</v>
+      </c>
+      <c r="F15" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" ht="33.3" customHeight="1">
+      <c r="A16" s="38">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="39">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E16" s="40">
+        <v>255</v>
+      </c>
+      <c r="F16" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" t="s" s="39">
+        <v>59</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" ht="48.3" customHeight="1">
+      <c r="A17" s="38">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s" s="39">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s" s="39">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s" s="39">
+        <v>40</v>
+      </c>
+      <c r="E17" s="40">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" t="s" s="39">
+        <v>62</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="38">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s" s="39">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s" s="39">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s" s="39">
+        <v>40</v>
+      </c>
+      <c r="E18" s="40">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s" s="39">
+        <v>65</v>
+      </c>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="38">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s" s="39">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E19" s="40">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="38">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s" s="39">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s" s="39">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E20" s="40">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="38">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s" s="39">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="E21" s="40">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" t="s" s="39">
+        <v>48</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" ht="48.3" customHeight="1">
+      <c r="A22" s="38">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s" s="39">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s" s="39">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s" s="39">
+        <v>40</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" t="s" s="39">
+        <v>74</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" ht="48.3" customHeight="1">
+      <c r="A23" s="38">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="39">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s" s="39">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s" s="39">
+        <v>40</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s" s="39">
+        <v>77</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="38">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s" s="39">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s" s="39">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s" s="39">
+        <v>80</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" t="s" s="39">
+        <v>81</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" t="s" s="39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="38">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="23">
-        <v>23</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" ht="18.8" customHeight="1">
-      <c r="A4" t="s" s="21">
-        <v>24</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" t="s" s="27">
-        <v>25</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" ht="18.65" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" ht="18.65" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" ht="37.45" customHeight="1">
-      <c r="A10" t="s" s="33">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="34">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="34">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s" s="34">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s" s="34">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s" s="34">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s" s="34">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s" s="34">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s" s="34">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s" s="34">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s" s="34">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="19.15" customHeight="1">
-      <c r="A11" s="35">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="36">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="36">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s" s="36">
-        <v>40</v>
-      </c>
-      <c r="E11" s="37">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s" s="36">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s" s="36">
+      <c r="B25" t="s" s="39">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s" s="39">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s" s="39">
+        <v>80</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" t="s" s="39">
         <v>42</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" t="s" s="36">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s" s="36">
-        <v>44</v>
-      </c>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="39">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s" s="40">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s" s="40">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E12" s="41">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" s="39">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s" s="40">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s" s="40">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E13" s="41">
-        <v>100</v>
-      </c>
-      <c r="F13" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="39">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s" s="40">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s" s="40">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E14" s="41">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" s="39">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s" s="40">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s" s="40">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E15" s="41">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="39">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s" s="40">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s" s="40">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E16" s="41">
-        <v>255</v>
-      </c>
-      <c r="F16" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" ht="33.3" customHeight="1">
-      <c r="A17" s="39">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s" s="40">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E17" s="41">
-        <v>255</v>
-      </c>
-      <c r="F17" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" t="s" s="40">
-        <v>59</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" ht="48.3" customHeight="1">
-      <c r="A18" s="39">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s" s="40">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s" s="40">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s" s="40">
-        <v>40</v>
-      </c>
-      <c r="E18" s="41">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" t="s" s="40">
-        <v>62</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="39">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s" s="40">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s" s="40">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s" s="40">
-        <v>40</v>
-      </c>
-      <c r="E19" s="41">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="39">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s" s="40">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s" s="40">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E20" s="41">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="39">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s" s="40">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s" s="40">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E21" s="41">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="39">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s" s="40">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s" s="40">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s" s="40">
-        <v>47</v>
-      </c>
-      <c r="E22" s="41">
-        <v>255</v>
-      </c>
-      <c r="F22" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" ht="48.3" customHeight="1">
-      <c r="A23" s="39">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s" s="40">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s" s="40">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s" s="40">
-        <v>40</v>
-      </c>
-      <c r="E23" s="41">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" t="s" s="40">
-        <v>73</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" ht="48.3" customHeight="1">
-      <c r="A24" s="39">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s" s="40">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s" s="40">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s" s="40">
-        <v>40</v>
-      </c>
-      <c r="E24" s="41">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="42">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s" s="40">
-        <v>76</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" s="39">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s" s="40">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s" s="40">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s" s="40">
-        <v>79</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" t="s" s="40">
-        <v>80</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="G25" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" t="s" s="39">
+        <v>85</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" t="s" s="39">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" s="39">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s" s="40">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s" s="40">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s" s="40">
-        <v>79</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="40">
-        <v>41</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" t="s" s="40">
-        <v>83</v>
-      </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" ht="18.3" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:F5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
